--- a/backend/uploads/file_nilai/nilai_EE0108-19_Orientasi Prodi_D_Tahun_2019.xlsx
+++ b/backend/uploads/file_nilai/nilai_EE0108-19_Orientasi Prodi_D_Tahun_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576491D-6168-48FB-8E93-CF71541D89CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB49CE63-69F3-4486-B9CB-2EB0B89818D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -100,220 +100,211 @@
     <t>CPMK5</t>
   </si>
   <si>
-    <t>I0715021</t>
-  </si>
-  <si>
-    <t>MOHAMMAD IZZUL MUKHTAR</t>
+    <t>ADITYA PRATAMA</t>
+  </si>
+  <si>
+    <t>I0717002</t>
+  </si>
+  <si>
+    <t>AGUNG BUDI UTOMO</t>
+  </si>
+  <si>
+    <t>Alvin Ichwannur Ridho</t>
+  </si>
+  <si>
+    <t>I0717005</t>
+  </si>
+  <si>
+    <t>ARIF WIBOWO</t>
+  </si>
+  <si>
+    <t>I0717006</t>
+  </si>
+  <si>
+    <t>Athaya Cantia Putri</t>
+  </si>
+  <si>
+    <t>I0717007</t>
+  </si>
+  <si>
+    <t>Attar Al Mufashal Rasyid</t>
+  </si>
+  <si>
+    <t>I0717008</t>
+  </si>
+  <si>
+    <t>Aulia Vici Yunitasari</t>
+  </si>
+  <si>
+    <t>Bakasrian Fericoari</t>
+  </si>
+  <si>
+    <t>BANU MAHESWARA</t>
+  </si>
+  <si>
+    <t>I0717011</t>
+  </si>
+  <si>
+    <t>Bayhaqi Irfani</t>
+  </si>
+  <si>
+    <t>I0717012</t>
+  </si>
+  <si>
+    <t>Berlianne Shanaza Andriany</t>
+  </si>
+  <si>
+    <t>I0717013</t>
+  </si>
+  <si>
+    <t>BIMA DAMAR JATI</t>
+  </si>
+  <si>
+    <t>I0717015</t>
+  </si>
+  <si>
+    <t>FAHMI ISMAIL</t>
+  </si>
+  <si>
+    <t>FAISHAL HANIFAN MA`RUF</t>
+  </si>
+  <si>
+    <t>I0717017</t>
+  </si>
+  <si>
+    <t>GILANG SATRIA AJIE</t>
+  </si>
+  <si>
+    <t>I0717018</t>
+  </si>
+  <si>
+    <t>Hanifah Yulia</t>
+  </si>
+  <si>
+    <t>I0717021</t>
+  </si>
+  <si>
+    <t>Hisbullah Ahmad Fathoni</t>
+  </si>
+  <si>
+    <t>I0717022</t>
+  </si>
+  <si>
+    <t>IVAN ROBI SEPTIAN</t>
+  </si>
+  <si>
+    <t>I0717023</t>
+  </si>
+  <si>
+    <t>Kevin Dwiyanto Saputra</t>
+  </si>
+  <si>
+    <t>I0717024</t>
+  </si>
+  <si>
+    <t>M. IQBAL ZIDNY</t>
+  </si>
+  <si>
+    <t>I0717025</t>
+  </si>
+  <si>
+    <t>M. MAULANA YUSUF</t>
+  </si>
+  <si>
+    <t>I0717026</t>
+  </si>
+  <si>
+    <t>MOHAMMAD RAIHAN H.</t>
+  </si>
+  <si>
+    <t>I0717027</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AL HAMID</t>
+  </si>
+  <si>
+    <t>I0717028</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IKYU ARQIE RAMADHAN</t>
+  </si>
+  <si>
+    <t>I0717029</t>
+  </si>
+  <si>
+    <t>Muhammad Renaldy Darmawan</t>
+  </si>
+  <si>
+    <t>I0717030</t>
+  </si>
+  <si>
+    <t>Muhammad Rifai</t>
+  </si>
+  <si>
+    <t>I0717031</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIFYAL ABUBAKAR</t>
+  </si>
+  <si>
+    <t>I0717032</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIZQI SUBENO</t>
+  </si>
+  <si>
+    <t>I0717033</t>
+  </si>
+  <si>
+    <t>Muhammad Wakhid Wardani</t>
+  </si>
+  <si>
+    <t>I0717035</t>
+  </si>
+  <si>
+    <t>Nanda Hafidz Rivanda</t>
+  </si>
+  <si>
+    <t>I0717037</t>
+  </si>
+  <si>
+    <t>RIFQI PARADISA</t>
+  </si>
+  <si>
+    <t>I0717038</t>
+  </si>
+  <si>
+    <t>RISKI RAMA KUSUMA</t>
+  </si>
+  <si>
+    <t>I0717039</t>
+  </si>
+  <si>
+    <t>Sony Adyatama</t>
+  </si>
+  <si>
+    <t>I0717041</t>
+  </si>
+  <si>
+    <t>Weldino Panji Kurniadi</t>
+  </si>
+  <si>
+    <t>Coba Salah</t>
+  </si>
+  <si>
+    <t>I0717921</t>
   </si>
   <si>
     <t>I0717001</t>
   </si>
   <si>
-    <t>ADITYA PRATAMA</t>
-  </si>
-  <si>
-    <t>I0717002</t>
-  </si>
-  <si>
-    <t>AGUNG BUDI UTOMO</t>
-  </si>
-  <si>
-    <t>I0717004</t>
-  </si>
-  <si>
-    <t>Alvin Ichwannur Ridho</t>
-  </si>
-  <si>
-    <t>I0717005</t>
-  </si>
-  <si>
-    <t>ARIF WIBOWO</t>
-  </si>
-  <si>
-    <t>I0717006</t>
-  </si>
-  <si>
-    <t>Athaya Cantia Putri</t>
-  </si>
-  <si>
-    <t>I0717007</t>
-  </si>
-  <si>
-    <t>Attar Al Mufashal Rasyid</t>
-  </si>
-  <si>
-    <t>I0717008</t>
-  </si>
-  <si>
-    <t>Aulia Vici Yunitasari</t>
-  </si>
-  <si>
-    <t>I0717009</t>
-  </si>
-  <si>
-    <t>Bakasrian Fericoari</t>
-  </si>
-  <si>
-    <t>I0717010</t>
-  </si>
-  <si>
-    <t>BANU MAHESWARA</t>
-  </si>
-  <si>
-    <t>I0717011</t>
-  </si>
-  <si>
-    <t>Bayhaqi Irfani</t>
-  </si>
-  <si>
-    <t>I0717012</t>
-  </si>
-  <si>
-    <t>Berlianne Shanaza Andriany</t>
-  </si>
-  <si>
-    <t>I0717013</t>
-  </si>
-  <si>
-    <t>BIMA DAMAR JATI</t>
-  </si>
-  <si>
-    <t>I0717014</t>
-  </si>
-  <si>
-    <t>BINTAR YUDO SADEWO</t>
-  </si>
-  <si>
-    <t>I0717015</t>
-  </si>
-  <si>
-    <t>FAHMI ISMAIL</t>
-  </si>
-  <si>
-    <t>I0717016</t>
-  </si>
-  <si>
-    <t>FAISHAL HANIFAN MA`RUF</t>
-  </si>
-  <si>
-    <t>I0717017</t>
-  </si>
-  <si>
-    <t>GILANG SATRIA AJIE</t>
-  </si>
-  <si>
-    <t>I0717018</t>
-  </si>
-  <si>
-    <t>Hanifah Yulia</t>
-  </si>
-  <si>
-    <t>I0717021</t>
-  </si>
-  <si>
-    <t>Hisbullah Ahmad Fathoni</t>
-  </si>
-  <si>
-    <t>I0717022</t>
-  </si>
-  <si>
-    <t>IVAN ROBI SEPTIAN</t>
-  </si>
-  <si>
-    <t>I0717023</t>
-  </si>
-  <si>
-    <t>Kevin Dwiyanto Saputra</t>
-  </si>
-  <si>
-    <t>I0717024</t>
-  </si>
-  <si>
-    <t>M. IQBAL ZIDNY</t>
-  </si>
-  <si>
-    <t>I0717025</t>
-  </si>
-  <si>
-    <t>M. MAULANA YUSUF</t>
-  </si>
-  <si>
-    <t>I0717026</t>
-  </si>
-  <si>
-    <t>MOHAMMAD RAIHAN H.</t>
-  </si>
-  <si>
-    <t>I0717027</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AL HAMID</t>
-  </si>
-  <si>
-    <t>I0717028</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IKYU ARQIE RAMADHAN</t>
-  </si>
-  <si>
-    <t>I0717029</t>
-  </si>
-  <si>
-    <t>Muhammad Renaldy Darmawan</t>
-  </si>
-  <si>
-    <t>I0717030</t>
-  </si>
-  <si>
-    <t>Muhammad Rifai</t>
-  </si>
-  <si>
-    <t>I0717031</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIFYAL ABUBAKAR</t>
-  </si>
-  <si>
-    <t>I0717032</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIZQI SUBENO</t>
-  </si>
-  <si>
-    <t>I0717033</t>
-  </si>
-  <si>
-    <t>Muhammad Wakhid Wardani</t>
-  </si>
-  <si>
-    <t>I0717035</t>
-  </si>
-  <si>
-    <t>Nanda Hafidz Rivanda</t>
-  </si>
-  <si>
-    <t>I0717037</t>
-  </si>
-  <si>
-    <t>RIFQI PARADISA</t>
-  </si>
-  <si>
-    <t>I0717038</t>
-  </si>
-  <si>
-    <t>RISKI RAMA KUSUMA</t>
-  </si>
-  <si>
-    <t>I0717039</t>
-  </si>
-  <si>
-    <t>Sony Adyatama</t>
-  </si>
-  <si>
-    <t>I0717041</t>
-  </si>
-  <si>
-    <t>Weldino Panji Kurniadi</t>
+    <t>I0717891</t>
+  </si>
+  <si>
+    <t>Adip Safiudin</t>
+  </si>
+  <si>
+    <t>I0716001</t>
   </si>
 </sst>
 </file>
@@ -390,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -459,12 +450,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,6 +475,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -502,9 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,154 +833,154 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>2019</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,938 +999,929 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="14">
-        <v>80</v>
-      </c>
-      <c r="E16" s="14">
-        <v>80</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="D16" s="4">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4">
         <v>100</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="4">
         <v>82.5</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="4">
         <v>82.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14">
-        <v>80</v>
-      </c>
-      <c r="E17" s="14">
-        <v>80</v>
-      </c>
-      <c r="F17" s="14">
-        <v>100</v>
-      </c>
-      <c r="G17" s="14">
-        <v>82.5</v>
-      </c>
-      <c r="H17" s="14">
-        <v>82.5</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
+        <v>80</v>
+      </c>
+      <c r="E17" s="4">
+        <v>80</v>
+      </c>
+      <c r="F17" s="4">
+        <v>95</v>
+      </c>
+      <c r="G17" s="4">
+        <v>91</v>
+      </c>
+      <c r="H17" s="4">
+        <v>95.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="14">
-        <v>80</v>
-      </c>
-      <c r="E18" s="14">
-        <v>80</v>
-      </c>
-      <c r="F18" s="14">
-        <v>95</v>
-      </c>
-      <c r="G18" s="14">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4">
+        <v>80</v>
+      </c>
+      <c r="E18" s="4">
+        <v>80</v>
+      </c>
+      <c r="F18" s="4">
+        <v>90</v>
+      </c>
+      <c r="G18" s="4">
         <v>91</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="4">
         <v>95.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="14">
-        <v>80</v>
-      </c>
-      <c r="E19" s="14">
-        <v>80</v>
-      </c>
-      <c r="F19" s="14">
-        <v>90</v>
-      </c>
-      <c r="G19" s="14">
-        <v>91</v>
-      </c>
-      <c r="H19" s="14">
-        <v>95.5</v>
+        <v>33</v>
+      </c>
+      <c r="D19" s="4">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4">
+        <v>80</v>
+      </c>
+      <c r="F19" s="4">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>76.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="14">
-        <v>80</v>
-      </c>
-      <c r="E20" s="14">
-        <v>80</v>
-      </c>
-      <c r="F20" s="14">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4">
         <v>100</v>
       </c>
-      <c r="G20" s="14">
-        <v>76.5</v>
-      </c>
-      <c r="H20" s="14">
-        <v>76.5</v>
+      <c r="G20" s="4">
+        <v>87</v>
+      </c>
+      <c r="H20" s="4">
+        <v>82.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="14">
-        <v>80</v>
-      </c>
-      <c r="E21" s="14">
-        <v>80</v>
-      </c>
-      <c r="F21" s="14">
-        <v>100</v>
-      </c>
-      <c r="G21" s="14">
-        <v>87</v>
-      </c>
-      <c r="H21" s="14">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4">
+        <v>85</v>
+      </c>
+      <c r="E21" s="4">
+        <v>85</v>
+      </c>
+      <c r="F21" s="4">
+        <v>85</v>
+      </c>
+      <c r="G21" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="H21" s="4">
         <v>82.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="14">
-        <v>85</v>
-      </c>
-      <c r="E22" s="14">
-        <v>85</v>
-      </c>
-      <c r="F22" s="14">
-        <v>85</v>
-      </c>
-      <c r="G22" s="14">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4">
+        <v>85</v>
+      </c>
+      <c r="E22" s="4">
+        <v>85</v>
+      </c>
+      <c r="F22" s="4">
+        <v>95</v>
+      </c>
+      <c r="G22" s="4">
         <v>82.5</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="4">
         <v>82.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="14">
-        <v>85</v>
-      </c>
-      <c r="E23" s="14">
-        <v>85</v>
-      </c>
-      <c r="F23" s="14">
-        <v>95</v>
-      </c>
-      <c r="G23" s="14">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4">
+        <v>85</v>
+      </c>
+      <c r="E23" s="4">
+        <v>85</v>
+      </c>
+      <c r="F23" s="4">
+        <v>90</v>
+      </c>
+      <c r="G23" s="4">
         <v>82.5</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="4">
         <v>82.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="14">
-        <v>85</v>
-      </c>
-      <c r="E24" s="14">
-        <v>85</v>
-      </c>
-      <c r="F24" s="14">
-        <v>90</v>
-      </c>
-      <c r="G24" s="14">
-        <v>82.5</v>
-      </c>
-      <c r="H24" s="14">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4">
+        <v>80</v>
+      </c>
+      <c r="E24" s="4">
+        <v>80</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4">
+        <v>87</v>
+      </c>
+      <c r="H24" s="4">
         <v>82.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="14">
-        <v>80</v>
-      </c>
-      <c r="E25" s="14">
-        <v>80</v>
-      </c>
-      <c r="F25" s="14">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4">
+        <v>80</v>
+      </c>
+      <c r="E25" s="4">
+        <v>80</v>
+      </c>
+      <c r="F25" s="4">
         <v>100</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="4">
         <v>87</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="4">
         <v>82.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="14">
-        <v>80</v>
-      </c>
-      <c r="E26" s="14">
-        <v>80</v>
-      </c>
-      <c r="F26" s="14">
-        <v>100</v>
-      </c>
-      <c r="G26" s="14">
-        <v>87</v>
-      </c>
-      <c r="H26" s="14">
-        <v>82.5</v>
+        <v>45</v>
+      </c>
+      <c r="D26" s="4">
+        <v>90</v>
+      </c>
+      <c r="E26" s="4">
+        <v>90</v>
+      </c>
+      <c r="F26" s="4">
+        <v>95</v>
+      </c>
+      <c r="G26" s="4">
+        <v>81</v>
+      </c>
+      <c r="H26" s="4">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="14">
-        <v>90</v>
-      </c>
-      <c r="E27" s="14">
-        <v>90</v>
-      </c>
-      <c r="F27" s="14">
+        <v>93</v>
+      </c>
+      <c r="D27" s="4">
+        <v>85</v>
+      </c>
+      <c r="E27" s="4">
+        <v>85</v>
+      </c>
+      <c r="F27" s="4">
         <v>95</v>
       </c>
-      <c r="G27" s="14">
-        <v>81</v>
-      </c>
-      <c r="H27" s="14">
-        <v>99</v>
+      <c r="G27" s="4">
+        <v>82</v>
+      </c>
+      <c r="H27" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="14">
-        <v>85</v>
-      </c>
-      <c r="E28" s="14">
-        <v>85</v>
-      </c>
-      <c r="F28" s="14">
-        <v>95</v>
-      </c>
-      <c r="G28" s="14">
+        <v>47</v>
+      </c>
+      <c r="D28" s="4">
+        <v>85</v>
+      </c>
+      <c r="E28" s="4">
+        <v>85</v>
+      </c>
+      <c r="F28" s="4">
+        <v>90</v>
+      </c>
+      <c r="G28" s="4">
         <v>82</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="14">
-        <v>85</v>
-      </c>
-      <c r="E29" s="14">
-        <v>85</v>
-      </c>
-      <c r="F29" s="14">
-        <v>90</v>
-      </c>
-      <c r="G29" s="14">
-        <v>82</v>
-      </c>
-      <c r="H29" s="14">
+        <v>48</v>
+      </c>
+      <c r="D29" s="4">
+        <v>90</v>
+      </c>
+      <c r="E29" s="4">
+        <v>90</v>
+      </c>
+      <c r="F29" s="4">
         <v>100</v>
+      </c>
+      <c r="G29" s="4">
+        <v>79</v>
+      </c>
+      <c r="H29" s="4">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="14">
-        <v>90</v>
-      </c>
-      <c r="E30" s="14">
-        <v>90</v>
-      </c>
-      <c r="F30" s="14">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4">
+        <v>85</v>
+      </c>
+      <c r="E30" s="4">
+        <v>85</v>
+      </c>
+      <c r="F30" s="4">
+        <v>90</v>
+      </c>
+      <c r="G30" s="4">
+        <v>82</v>
+      </c>
+      <c r="H30" s="4">
         <v>100</v>
-      </c>
-      <c r="G30" s="14">
-        <v>79</v>
-      </c>
-      <c r="H30" s="14">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="14">
-        <v>85</v>
-      </c>
-      <c r="E31" s="14">
-        <v>85</v>
-      </c>
-      <c r="F31" s="14">
-        <v>90</v>
-      </c>
-      <c r="G31" s="14">
-        <v>82</v>
-      </c>
-      <c r="H31" s="14">
+        <v>52</v>
+      </c>
+      <c r="D31" s="4">
+        <v>90</v>
+      </c>
+      <c r="E31" s="4">
+        <v>90</v>
+      </c>
+      <c r="F31" s="4">
         <v>100</v>
+      </c>
+      <c r="G31" s="4">
+        <v>81</v>
+      </c>
+      <c r="H31" s="4">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="14">
-        <v>90</v>
-      </c>
-      <c r="E32" s="14">
-        <v>90</v>
-      </c>
-      <c r="F32" s="14">
+        <v>54</v>
+      </c>
+      <c r="D32" s="4">
+        <v>85</v>
+      </c>
+      <c r="E32" s="4">
+        <v>85</v>
+      </c>
+      <c r="F32" s="4">
         <v>100</v>
       </c>
-      <c r="G32" s="14">
-        <v>81</v>
-      </c>
-      <c r="H32" s="14">
-        <v>99</v>
+      <c r="G32" s="4">
+        <v>80</v>
+      </c>
+      <c r="H32" s="4">
+        <v>93.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="14">
-        <v>85</v>
-      </c>
-      <c r="E33" s="14">
-        <v>85</v>
-      </c>
-      <c r="F33" s="14">
-        <v>100</v>
-      </c>
-      <c r="G33" s="14">
-        <v>80</v>
-      </c>
-      <c r="H33" s="14">
+        <v>56</v>
+      </c>
+      <c r="D33" s="4">
+        <v>85</v>
+      </c>
+      <c r="E33" s="4">
+        <v>85</v>
+      </c>
+      <c r="F33" s="4">
+        <v>95</v>
+      </c>
+      <c r="G33" s="4">
+        <v>80</v>
+      </c>
+      <c r="H33" s="4">
         <v>93.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="14">
-        <v>85</v>
-      </c>
-      <c r="E34" s="14">
-        <v>85</v>
-      </c>
-      <c r="F34" s="14">
-        <v>95</v>
-      </c>
-      <c r="G34" s="14">
-        <v>80</v>
-      </c>
-      <c r="H34" s="14">
-        <v>93.5</v>
+        <v>58</v>
+      </c>
+      <c r="D34" s="4">
+        <v>85</v>
+      </c>
+      <c r="E34" s="4">
+        <v>85</v>
+      </c>
+      <c r="F34" s="4">
+        <v>90</v>
+      </c>
+      <c r="G34" s="4">
+        <v>96</v>
+      </c>
+      <c r="H34" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="14">
-        <v>85</v>
-      </c>
-      <c r="E35" s="14">
-        <v>85</v>
-      </c>
-      <c r="F35" s="14">
-        <v>90</v>
-      </c>
-      <c r="G35" s="14">
-        <v>96</v>
-      </c>
-      <c r="H35" s="14">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="D35" s="4">
+        <v>85</v>
+      </c>
+      <c r="E35" s="4">
+        <v>85</v>
+      </c>
+      <c r="F35" s="4">
+        <v>100</v>
+      </c>
+      <c r="G35" s="4">
+        <v>80</v>
+      </c>
+      <c r="H35" s="4">
+        <v>93.5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="14">
-        <v>85</v>
-      </c>
-      <c r="E36" s="14">
-        <v>85</v>
-      </c>
-      <c r="F36" s="14">
-        <v>100</v>
-      </c>
-      <c r="G36" s="14">
-        <v>80</v>
-      </c>
-      <c r="H36" s="14">
-        <v>93.5</v>
+        <v>62</v>
+      </c>
+      <c r="D36" s="4">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4">
+        <v>80</v>
+      </c>
+      <c r="F36" s="4">
+        <v>90</v>
+      </c>
+      <c r="G36" s="4">
+        <v>91</v>
+      </c>
+      <c r="H36" s="4">
+        <v>95.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="14">
-        <v>80</v>
-      </c>
-      <c r="E37" s="14">
-        <v>80</v>
-      </c>
-      <c r="F37" s="14">
-        <v>90</v>
-      </c>
-      <c r="G37" s="14">
-        <v>91</v>
-      </c>
-      <c r="H37" s="14">
-        <v>95.5</v>
+        <v>64</v>
+      </c>
+      <c r="D37" s="4">
+        <v>85</v>
+      </c>
+      <c r="E37" s="4">
+        <v>85</v>
+      </c>
+      <c r="F37" s="4">
+        <v>95</v>
+      </c>
+      <c r="G37" s="4">
+        <v>96</v>
+      </c>
+      <c r="H37" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="14">
-        <v>85</v>
-      </c>
-      <c r="E38" s="14">
-        <v>85</v>
-      </c>
-      <c r="F38" s="14">
-        <v>95</v>
-      </c>
-      <c r="G38" s="14">
-        <v>96</v>
-      </c>
-      <c r="H38" s="14">
+        <v>66</v>
+      </c>
+      <c r="D38" s="4">
+        <v>85</v>
+      </c>
+      <c r="E38" s="4">
+        <v>85</v>
+      </c>
+      <c r="F38" s="4">
+        <v>90</v>
+      </c>
+      <c r="G38" s="4">
         <v>87</v>
+      </c>
+      <c r="H38" s="4">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="14">
-        <v>85</v>
-      </c>
-      <c r="E39" s="14">
-        <v>85</v>
-      </c>
-      <c r="F39" s="14">
-        <v>90</v>
-      </c>
-      <c r="G39" s="14">
+        <v>68</v>
+      </c>
+      <c r="D39" s="4">
+        <v>90</v>
+      </c>
+      <c r="E39" s="4">
+        <v>90</v>
+      </c>
+      <c r="F39" s="4">
+        <v>95</v>
+      </c>
+      <c r="G39" s="4">
         <v>87</v>
       </c>
-      <c r="H39" s="14">
-        <v>78</v>
+      <c r="H39" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="14">
-        <v>90</v>
-      </c>
-      <c r="E40" s="14">
-        <v>90</v>
-      </c>
-      <c r="F40" s="14">
-        <v>95</v>
-      </c>
-      <c r="G40" s="14">
+        <v>70</v>
+      </c>
+      <c r="D40" s="4">
+        <v>85</v>
+      </c>
+      <c r="E40" s="4">
+        <v>85</v>
+      </c>
+      <c r="F40" s="4">
+        <v>100</v>
+      </c>
+      <c r="G40" s="4">
         <v>87</v>
       </c>
-      <c r="H40" s="14">
-        <v>87</v>
+      <c r="H40" s="4">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="14">
-        <v>85</v>
-      </c>
-      <c r="E41" s="14">
-        <v>85</v>
-      </c>
-      <c r="F41" s="14">
+        <v>72</v>
+      </c>
+      <c r="D41" s="4">
+        <v>85</v>
+      </c>
+      <c r="E41" s="4">
+        <v>85</v>
+      </c>
+      <c r="F41" s="4">
         <v>100</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="4">
         <v>87</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="4">
         <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="14">
-        <v>85</v>
-      </c>
-      <c r="E42" s="14">
-        <v>85</v>
-      </c>
-      <c r="F42" s="14">
-        <v>100</v>
-      </c>
-      <c r="G42" s="14">
+        <v>74</v>
+      </c>
+      <c r="D42" s="4">
+        <v>90</v>
+      </c>
+      <c r="E42" s="4">
+        <v>90</v>
+      </c>
+      <c r="F42" s="4">
+        <v>85</v>
+      </c>
+      <c r="G42" s="4">
         <v>87</v>
       </c>
-      <c r="H42" s="14">
-        <v>78</v>
+      <c r="H42" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="14">
-        <v>90</v>
-      </c>
-      <c r="E43" s="14">
-        <v>90</v>
-      </c>
-      <c r="F43" s="14">
-        <v>85</v>
-      </c>
-      <c r="G43" s="14">
+        <v>76</v>
+      </c>
+      <c r="D43" s="4">
+        <v>90</v>
+      </c>
+      <c r="E43" s="4">
+        <v>90</v>
+      </c>
+      <c r="F43" s="4">
+        <v>100</v>
+      </c>
+      <c r="G43" s="4">
         <v>87</v>
       </c>
-      <c r="H43" s="14">
-        <v>87</v>
+      <c r="H43" s="4">
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="14">
-        <v>90</v>
-      </c>
-      <c r="E44" s="14">
-        <v>90</v>
-      </c>
-      <c r="F44" s="14">
-        <v>100</v>
-      </c>
-      <c r="G44" s="14">
-        <v>87</v>
-      </c>
-      <c r="H44" s="14">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="D44" s="4">
+        <v>90</v>
+      </c>
+      <c r="E44" s="4">
+        <v>90</v>
+      </c>
+      <c r="F44" s="4">
+        <v>95</v>
+      </c>
+      <c r="G44" s="4">
+        <v>79</v>
+      </c>
+      <c r="H44" s="4">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="14">
-        <v>90</v>
-      </c>
-      <c r="E45" s="14">
-        <v>90</v>
-      </c>
-      <c r="F45" s="14">
+        <v>80</v>
+      </c>
+      <c r="D45" s="4">
+        <v>85</v>
+      </c>
+      <c r="E45" s="4">
+        <v>85</v>
+      </c>
+      <c r="F45" s="4">
         <v>95</v>
       </c>
-      <c r="G45" s="14">
-        <v>79</v>
-      </c>
-      <c r="H45" s="14">
-        <v>88</v>
+      <c r="G45" s="4">
+        <v>99</v>
+      </c>
+      <c r="H45" s="4">
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="14">
-        <v>85</v>
-      </c>
-      <c r="E46" s="14">
-        <v>85</v>
-      </c>
-      <c r="F46" s="14">
-        <v>95</v>
-      </c>
-      <c r="G46" s="14">
-        <v>99</v>
-      </c>
-      <c r="H46" s="14">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="D46" s="4">
+        <v>80</v>
+      </c>
+      <c r="E46" s="4">
+        <v>80</v>
+      </c>
+      <c r="F46" s="4">
+        <v>100</v>
+      </c>
+      <c r="G46" s="4">
+        <v>80</v>
+      </c>
+      <c r="H46" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="14">
-        <v>80</v>
-      </c>
-      <c r="E47" s="14">
-        <v>80</v>
-      </c>
-      <c r="F47" s="14">
-        <v>100</v>
-      </c>
-      <c r="G47" s="14">
-        <v>80</v>
-      </c>
-      <c r="H47" s="14">
+        <v>84</v>
+      </c>
+      <c r="D47" s="4">
+        <v>80</v>
+      </c>
+      <c r="E47" s="4">
+        <v>80</v>
+      </c>
+      <c r="F47" s="4">
+        <v>95</v>
+      </c>
+      <c r="G47" s="4">
+        <v>80</v>
+      </c>
+      <c r="H47" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="14">
-        <v>80</v>
-      </c>
-      <c r="E48" s="14">
-        <v>80</v>
-      </c>
-      <c r="F48" s="14">
-        <v>95</v>
-      </c>
-      <c r="G48" s="14">
-        <v>80</v>
-      </c>
-      <c r="H48" s="14">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="D48" s="4">
+        <v>85</v>
+      </c>
+      <c r="E48" s="4">
+        <v>85</v>
+      </c>
+      <c r="F48" s="4">
+        <v>100</v>
+      </c>
+      <c r="G48" s="4">
+        <v>99</v>
+      </c>
+      <c r="H48" s="4">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="4">
+        <v>85</v>
+      </c>
+      <c r="E49" s="4">
+        <v>85</v>
+      </c>
+      <c r="F49" s="4">
         <v>95</v>
       </c>
-      <c r="D49" s="14">
-        <v>85</v>
-      </c>
-      <c r="E49" s="14">
-        <v>85</v>
-      </c>
-      <c r="F49" s="14">
-        <v>100</v>
-      </c>
-      <c r="G49" s="14">
+      <c r="G49" s="4">
         <v>99</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>36</v>
-      </c>
-      <c r="B50" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="14">
-        <v>85</v>
-      </c>
-      <c r="E50" s="14">
-        <v>85</v>
-      </c>
-      <c r="F50" s="14">
-        <v>95</v>
-      </c>
-      <c r="G50" s="14">
-        <v>99</v>
-      </c>
-      <c r="H50" s="14">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="D50" s="5">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5">
+        <v>14</v>
+      </c>
+      <c r="G50" s="5">
+        <v>15</v>
+      </c>
+      <c r="H50" s="5">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
